--- a/csv_files/items.xlsx
+++ b/csv_files/items.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billd\Documents\Spring 2021\software_engineering\project\testing\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5B0EC-5491-4EB3-B78B-FDB405A27708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC72105A-0F39-4A2E-850B-2DF713DCE9E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -75,9 +76,6 @@
     <t>Lenovo Legion Y740</t>
   </si>
   <si>
-    <t>Lenovo ThinkPadP1</t>
-  </si>
-  <si>
     <t>Lenovo ThinkPad P15</t>
   </si>
   <si>
@@ -111,12 +109,6 @@
     <t>Apple Titanium PowerBook G4</t>
   </si>
   <si>
-    <t>Dell XPS 7390</t>
-  </si>
-  <si>
-    <t>Purism Librem 13</t>
-  </si>
-  <si>
     <t>System76 Darter Pro</t>
   </si>
   <si>
@@ -147,89 +139,1240 @@
     <t>Gaming</t>
   </si>
   <si>
-    <t xml:space="preserve">•	A sleek, durable, and slim laptop chassis.
-•	Latest multimedia in High-definition.
-•	Anti-glare display with a two-sided narrow bezel.
-•	Latest in digital security.
-•	Integrated graphics, eMMC storage, and LPDDR3 memory.
-•	Plus, over 10 hours of battery life.
-•	Processor:          MediaTek™ MT8173C Processor (1.70 GHz, 4 Cores, 4 Threads)
-•	Operating System:         Chrome OS
-•	Display Type     14.0” HD (1366 x 768) anti-glare, 220 nits
-•	Memory:   4 GB LPDDR3 1866MHz (Soldered)
-•	Hard Drive:   32 GB eMMC
-•	AC Adapter:   45W
-•	Graphics:  Integrated PowerVR GX6250
-•	Battery:   3 Cell Li-Polymer 45Wh
-•	Bluetooth:  Bluetooth® 4.1
-•	Camera:  720p HD
-•	Keyboard:   US English
-•	Wireless:  802.11AC (2 x 2)
+    <t>System76 Serval WS</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Number of Sales</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>System76</t>
+  </si>
+  <si>
+    <t>• Powered by up to 10th Gen Intel® Core™ i7 H processors,
+• Up to Windows 10 Pro Available
+• Up to NVIDIA® GeForce RTX™ graphics 
+• Clean and minimalist design that Lenovo is known for. 
+• Processor: 10th Generation Intel® Core™ i5-10300H Processor (2.50 GHz,
+ up to 4.50 GHz with Turbo, 4 Cores, 8 Threads, 8 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Memory:  8 GB DDR4 2933MHz
+• Hard Drive:  128 GB PCIe SSD
+• Display Type:  15.6" FHD (1920 x 1080) IPS, anti-glare, 250nits, 120Hz
+• Graphics:  NVIDIA® GeForce® GTX 1650 4GB
+• AC Adapter:   170W AC Adapter
+• Keyboard:   Backlit - White - US English
+• Camera:   720p HD
+• Battery:  4 Cell Li-Polymer 80Wh
+• Wireless:  WiFi 6 802.11AX (2 x 2) &amp; Bluetooth® 5.0</t>
+  </si>
+  <si>
+    <t>• Up to 10th Gen Intel® Core™ i9 HK-Series processors
+• Up to NVIDIA® GeForce RTX™ Graphics.
+• Lightning-fast high-refresh panels.
+• Lenovo’s revolutionary TrueStrike keyboard.
+• A precision-crafted chassis jacketed in high-grade aluminum.
+• Processor:  10th Generation Intel® Core™ i5-10300H Processor (2.50 GHz, 
+up to 4.50 GHz with Turbo Boost, 4 Cores, 8 Threads, 8 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Memory:  8 GB DDR4 2933MHz
+• Hard Drive:  256 GB PCIe SSD
+• Display Type:  15.6" FHD (1920 x 1080) IPS, anti-glare, 300 nits, 144Hz
+• Graphics:  NVIDIA® GTX 1660 Ti 6GB
+• Camera:  720p HD
+• Keyboard:   RGB Backlit - US English
+• Wireless:  Wi-Fi 6 802.11AX (2 x 2) &amp; Bluetooth® 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Latest high-performance graphics and processing.
+• Newest features a dual-channel thermal system can provide.
+• Water repellent keyboard delivers 100% anti-ghosting.
+• Faster refresh rates and ultimate brightness levels.
+• Processor: 9th Generation Intel® Core™ i7-9750H Processor (2.60 GHz,
+ up to 4.50 GHz with Turbo Boost, 6 Cores, 12 Threads, 12 MB Cache)
+• Operating System: Windows 10 Pro 64
+• Display Type: 15.6" FHD (1920 x 1080) IPS, anti-glare with Dolby Vision™,
+ HDR 400, 500 nits, 144Hz
+• Memory: 16 GB DDR4 2666MHz (2 x 8 GB)
+• Hard Drive:512 GB PCIe SSD
+• Graphics: NVIDIA® GeForce® RTX™ 2070 with Max-Q 8GB
+• Second Hard Drive: None
+• Camera: 720p HD
+• Keyboard: RGB Backlit - US English
+• Wireless: Killer Wireless 802.11 AC (2 x 2) + Bluetooth® 5.0
 </t>
   </si>
   <si>
-    <t>•	Premium 10th Generation Intel® Core™ processors
-•	Get up to 2x performance with NVIDIA® GeForce® GTX 1650 graphics
-•	15.6” FHD IPS display, up to 60Hz
-•	Features a more robust dual fan and vent system than previous gens &amp; offers users control of their fan speed.                      
-•	Processor:       10th Generation Intel® Core™ i5-10300H Processor (2.50 GHz, up to 4.50 GHz with Turbo Boost, 4 Cores, 8 Threads, 8 MB Cache)
-•	Operating System:       Windows 10 Home 64
-•	Display Type:     15.6" FHD (1920 x 1080) IPS, anti-glare, 250 nits, 120Hz
-•	Memory:      8 GB DDR4 2933MHz
-•	Hard Drive:     512 GB PCIe SSD
-•	Graphics:     NVIDIA® GTX 1650 Ti 4GB
-•	Bluetooth:    Bluetooth® 5.0
-•	Camera:      720p HD
-•	Keyboard:      Backlit - US English
-•	Wireless:     802.11AX (2 x 2)</t>
-  </si>
-  <si>
-    <t>•	High performance AMD Ryzen™ 4000 H-Series processors.
-•	Premium NVIDIA® GeForce® GTX graphics.
-•	15.6" FHD display with up to 120Hz refresh rate.
-•	SSD storage options &amp; DDR4 memory.
-•	Features a robust dual fan and vent system &amp; spacious keyboard.
-•	Processor:	Up to AMD® Ryzen™ 7 4800H Processor (2.90 GHz, up to 4.20 GHz Max Boost, 8 Cores, 16 Threads, 8 MB Cache)
-•	Operating System:	Windows 10 Home
-•	Graphics:	NVIDIA® GeForce® GTX 1650 4GB
-•	Memory:	8 GB DDR4 3200MHz
-•	Display:	15.6" FHD (1920 x 1080) IPS, anti-glare, 250 nits, 120Hz
-•	Battery:	Up to 5 hours*
-•	Storage:	1 TB 5400 RPM HDD + 512 GB PCIe SSD
-•	Audio:	2 x 1.5W speakers with Dolby Audio™
-•	Camera:	720 HD webcam with privacy shutter
-•	Dimensions (W x D x H):	Starting at 359mm x 249.6mm x 24.9mm / 14.13" x 9.83" x .98"
-•	Weight:	Starting at 2.2kg / 4.8lbs
-•	Color:	Onyx Black
-•	Connectivity:	802.11AC (2 x 2) &amp; Bluetooth® 5.0</t>
-  </si>
-  <si>
-    <t>System76 Serval WS</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Number of Sales</t>
-  </si>
-  <si>
-    <t>Lenovo</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Dell</t>
-  </si>
-  <si>
-    <t>System76</t>
+    <t>Lenovo ThinkPad P1</t>
+  </si>
+  <si>
+    <t>Scientific</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Premium 9th Gen Intel® Core processors.
+• Enhanced graphics cards from NVIDIA® let you excel at creating, playing &amp;
+entertaining.
+• Convenient 15.6” touchscreen with stunning visuals, 4K VESA display.
+• Redesigned rotating soundbar &amp; 2 additional speakers make everything 
+from meetings to your favorite music crystal clear.
+• Enhanced webcam security with TrueBlock Privacy Shutter.
+• Processor:  9th Generation Intel® Core™ i7-9750H Processor (2.60 GHz, up 
+to 4.50 GHz with Turbo Boost, 6 Cores, 12 Threads, 12 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Display Type:  15.6" FHD (1920 x 1080) IPS, glossy, touchscreen, 500 nits
+• Memory:  12 GB DDR4 2666MHz (Soldered)
+• Hard Drive:  256 GB PCIe SSD
+• Graphics: NVIDIA® GeForce® GTX 1650 4GB
+• Camera: 720p HD
+• Pen:  Lenovo Active Pen (Garaged)
+• Fingerprint Reader:  Fingerprint Reader
+• Keyboard:  Backlit - US English
+• Wireless:  802.11AX (2 x 2) &amp; Bluetooth® 5.0
+</t>
+  </si>
+  <si>
+    <t>• 10th Gen Intel Core i7 CPU 
+• Switchable Intel and NVIDIA Graphics 
+• System76 Open Firmware with coreboot 
+• 17" screen display 
+• Up to 64 GB of memory
+• Operating System:  Ubuntu 20.04 LTS (64-bit) 
+• Processor:  10th Gen Intel® Core i7-10870H, 2.2 up to 5.0 GHz – 
+16 MB cache – 8 cores – 16 threads
+• Display:  15.6" or 17.3" FHD (1920x1080) 144 Hz refresh rate, Matte Finish
+• Memory:  Up to 64 GB dual-channel DDR4
+• Graphics:  NVIDIA GeForce RTX 3060, 3070, or 3080
+• Storage:  2x M.2 SSD (1x SATA + 1x PCIe or 2x PCIe Gen3x4), Up to 4 TB total
+• Expansion:  1 x USB 3.2 / Thunderbolt™ 3 (Type C), 3 x USB 3.2 (1 x powered
+ USB, AC/DC), MicroSD Card Reader
+• Networking:  Gigabit Ethernet, Intel® Wireless Wi-Fi 6 AX + Bluetooth                                                                                  • Dimensions: 17.3": 0.78" x 15.60" x 10.43" (19.81 x 396.24 x 264.92 mm)
+• Charger: 180 Watts, AC-in 100~240V, 50~60Hz 
+• Battery:  Embedded 3 cell Polymer battery pack 73Wh</t>
+  </si>
+  <si>
+    <t>• 14" 1080P Matte Display 
+• 11th Gen Intel Core i7 
+• Optional NVIDIA GTX 1650 Graphics 
+• Up to 2TB PCIe 4.0 NVMe Storage 
+• System76 Open Firmware 
+• Operating System: Ubuntu 20.04 LTS(64-bit)
+• Processor:  11th Gen Intel® Core i7-1165G7: Up to 4.7 GHz - 12MB Cache 
+- 4 Cores - 8 Threads
+• Display:  14.1″ 1920×1080 FHD, Matte Finish
+• Graphics:  Intel® Iris Xe Graphics, Optional NVIDIA GTX 1650
+• Memory:  Up to 64GB dual-channel DDR4 @ 3200MHz
+• Storage: 1 × M.2 PCIe Gen4 NVMe. Up to 2TB total.
+• Networking:  Gigabit Ethernet, Intel® Dual Band Wi-Fi 6, Bluetooth 5
+• Dimensions: 12.79″ × 8.86″ × 0.69″ (32.49 × 22.50 × 1.75cm)
+• Video Ports: HDMI, USB 3.2 Gen 2 Type-C w/ DisplayPort 1.4
+• Audio: Stereo Speakers, 1× Headphone/Microphone Combo
+• Camera: 1.0M 720p HD Webcam
+• Security:  Kensington® Lock
+• Battery: Li-Ion - 49 Wh</t>
+  </si>
+  <si>
+    <t>• 3rd Gen AMD Ryzen Desktop CPUs 
+• NVIDIA GeForce Graphics 
+• Up to 64 GB of Memory 
+• Up to 4 TB NVMe Storage 
+• Operating System: Ubuntu 20.04 LTS(64-bit)
+• Processor: 3rd Gen AMD® Ryzen™ 7 3700X: 3.6 up to 4.4 GHz –
+ 8 Cores - 16 Threads
+• Display: 15.6” FHD (1920x1080) Matte Finished, 144 Hz
+• Graphics: NVIDIA GeForce RTX 2070
+• Memory: Upgradeable to 64GB dual-channel DDR4
+• Dimensions: 1.28" x 14.21" x 10.16" (32.51 mm x 360.934 mm x 258.06 mm)
+• Storage: 2 x M.2 (SATA or PCIe NVMe), 1 x 2.5" 7mm height drive, 
+Up to 8 TB total
+• Battery:  Removable 6 cell Smart Lithium-Ion battery pack 62Wh
+• Camera: 1.0M HD Video Camera
+• Audio: 2-in-1 Audio Jack (Headphone / Microphone), Microphone Jack,
+ Stereo Speakers
+• Networking: Gigabit Ethernet, Intel® Wireless Wi-Fi 6 AX + Bluetooth</t>
+  </si>
+  <si>
+    <t>System76 Lemur Pro</t>
+  </si>
+  <si>
+    <t>System76 Pangolin</t>
+  </si>
+  <si>
+    <t>• 3rd Gen AMD Ryzen Mobile CPUs 
+• AMD Radeon™ Graphics 
+• Up to 64 GB of memory 
+• Up to 2 TB NVMe Storage 
+• Operating System: Ubuntu 20.04 LTS (64-bit)
+• Processor: AMD Ryzen™ 7 4700U: 2.0 up to 4.1 GHz - 8 Cores 
+- 8 Threads
+• Display:  15.6″ 1920×1080 FHD, Matte Finish
+• Graphics:  AMD Radeon™ Graphics
+• Memory:  Up to 64 GB DDR4 @ 3200 MHz
+• Storage:  1 x M.2 SSD(SATA or PCIe NVMe). Up to 2TB total.
+• Dimensions:  14.19″ × 9.42″ × 0.78″ (36.0 × 23.9 × 1.99 cm)
+• Battery:  Li-Ion - 49 Wh
+• Networking:  Gigabit Ethernet, Intel® Dual Band Wi-Fi 6, Bluetooth 5
+• Audio:  Stereo Speakers, 1× Headphone/Microphone Combo
+• Camera: 1.0M 720p HD Webcam</t>
+  </si>
+  <si>
+    <t>MediaTek</t>
+  </si>
+  <si>
+    <t>AMD Ryzen</t>
+  </si>
+  <si>
+    <t>• Apple A1181 MacBook 13.3" Laptop with Intel Core 2 Duo 2.0GHz 
+• Operating System: Mac OS X 10.7, Lion
+• Condition: Seller refurbished
+• Color: Black
+• GPU: Intel HD Graphics 3000 
+• Processor: Intel Core 2 Duo 
+• Processor Speed: 2.00 GHz
+• Maximum Resolution: 1280 X 800 
+• RAM Size: 2 GB 
+• SSD Capacity: 120 GB
+• Screen Size: 13.3 in 
+• Features: Bluetooth, Built-in Microphone, Built-in Webcam
+• AC Charger included</t>
+  </si>
+  <si>
+    <t>workstation</t>
+  </si>
+  <si>
+    <t>ThinkStation P340 Tiny Workstation</t>
+  </si>
+  <si>
+    <t>ThinkStation P520c Tower Workstation</t>
+  </si>
+  <si>
+    <t>ThinkStation P720 Tower Workstation</t>
+  </si>
+  <si>
+    <t>ThinkStation P920 Tower Workstation</t>
+  </si>
+  <si>
+    <t>• The industry's smallest workstation.
+• Uncompromising performance in a form factor.
+• 96% smaller than a traditional desktop.
+• One liter in total volume.
+• Can be displayed on desk, or mounted behind display.
+• Extreme flexibility with a workstation.
+• Focuses power, functionality, and configurability.
+• Processor:   10th Generation Intel® Core™ i3-10300T Processor (3.00 GHz,
+up to 3.90 GHz with Turbo Boost, 4 Cores, 8 Threads, 8 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Memory:   8 GB DDR4 2933MHz
+• Graphics:   NVIDIA Quadro P620 2GB (4xMini DP)
+• Hard Drive:  256 GB PCIe SSD Opal
+• Network Card:   Integrated Ethernet
+• Keyboard:   USB Traditional Keyboard - US English
+• Pointing Device:  USB Mouse</t>
+  </si>
+  <si>
+    <t>• A powerful performing tower workstation.
+• Cutting-edge processing, graphics, storage, and memory.
+• The configurable 25L workstation is a solid workhorse.
+• Energy efficient and extremely reliable.
+• ISV-certified and VR-ready.
+• An impressive affordable price tag.
+• Processor:  Up to Intel® Xeon® W-2245 Processor with vPro™ (3.90 
+GHz, up to 4.50 GHz with Turbo Boost, 8 Cores, 16 Threads, 16.5 MB Cache)
+• Operating System:  Windows 10 Pro Workstations
+• Chipset:   Intel® C422
+• Supported OS:   Red Hat® Enterprise Linux® 7.3
+• Power Supply:  625W
+• Graphics:   NVIDIA® Quadro P4000 8GB
+• Connectivity:    Intel 8265 802.11AC with vPro (2 x 2) &amp; 
+Bluetooth® 4.2
+• Memory:   Up to 128 GB DDR4 2666 MHz ECC (4‐CH, 4 X DIMM 
+slots)
+• Dimensions (W x D x H): 6.9" x 16.8" x 14.8"</t>
+  </si>
+  <si>
+    <t>• Powered by Intel® Xeon® processors and NVIDIA® Quadro® graphics.
+• Durable workstation.
+• Ideal for professionals with heavy data processing.
+• Gives you speed with huge storage options.
+• Parallel-processing capability.
+• Processor:  Up to Dual Intel® Gold and Silver (up to 20 cores, up to 3.6 
+GHz per CPU)
+• Operating System:  Windows 10 Pro for Workstations
+• Power Supply:   690W
+• Graphics:   NVIDIA® Quadro GV100 32GB
+• Memory:  Up to 768 GB RDIMM 2933 MHz DDR4, 12 DIMM slots
+• Storage:  3.5" SATA HDD 7200 rpm up to 6 TB
+• Chipset:  Intel® C621
+• Dimensions (W x D x H):  6.9” x 19.1” x 17.6”
+• Connectivity:   Intel® Wireless 8265 AC WIFI + Bluetooth® 4.2</t>
+  </si>
+  <si>
+    <t>• Workstation tower built for extreme performance.
+• Powered by up to dual Intel® Xeon® processor.
+• Three NVIDIA® Quadro® GPUs.
+• The most I/O in the industry.
+• Perfect for running large intensive apps.
+• Processor:  Up to Dual Intel® Platinum, Gold, Silver, and Bronze (up to 
+28 cores, up to 4.4GHz per CPU)
+• Operating System:  Windows 10 Pro for Workstations
+• Power Supply:  1400 W
+• Graphics:   NVIDIA® Quadro RTX™ 8000 48GB
+• Memory:   16 GB DIMM capacity
+• Chipset:   Intel® C621
+• Dimensions (W x D x H):   7.9” x 24.4” x 17.6” 
+• Green Certifications:   ENERGY STAR® 8.0 Qualified
+• Storage:   3.5" SATA HDD 7200 rpm up to 6 TB
+• Connectivity:    Intel® Wireless 8265 AC WIFI + Bluetooth™ 4.2</t>
+  </si>
+  <si>
+    <t>ThinkStation P520 Tower Workstation</t>
+  </si>
+  <si>
+    <t>ThinkStation P620 Tower Workstation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Balances lightning-quick computing and professional graphics perfectly.
+• Cutting-edge storage, memory, and cooling.
+• Handles huge workloads and complex modelling to virtual reality.
+• Configurable and energy efficient.
+• This 33L workstation is designed with performance and reliability.
+• Processor:  Up to Intel® Xeon® W-2295 with vPro™ (3.00 GHz, up to 4.60
+ GHz with Turbo Boost, 18 Cores, 36 Threads, 24.75 MB Cache)
+• Operating System:   Windows 10 Pro for Workstations
+• Chipset:  Intel® C422
+• Supported OS:   Red Hat® Enterprise Linux® 7.3 
+• Power Supply:   690 W
+• Graphics:   NVIDIA® Quadro RTX™ 8000 48GB
+• Connectivity:   Intel 8265 802.11AC with vPro (2 x 2) &amp; Bluetooth® 4.2
+• Memory:    Up to 256GB DDR4 2666MHz ECC (4‐CH, 8 x DIMM slots)
+• Media Card Reader:  9-in-1 media card reader
+• PCIe Expansion:    2 x PCIe x16 Gen 3
+• Dimensions (W x D x H):    6.5" x 18.0" x 17.6" </t>
+  </si>
+  <si>
+    <t>• A sleek, durable, and slim laptop chassis.
+• Latest multimedia in High-definition.
+• Anti-glare display with a two-sided narrow bezel.
+• Latest in digital security.
+• Integrated graphics, eMMC storage, and LPDDR3 memory.
+• Plus, over 10 hours of battery life.
+• Processor:   MediaTek™ MT8173C Processor (1.70 GHz, 4 Cores, 4 Threads)
+• Operating System:    Chrome OS
+• Display Type:  14.0” HD (1366 x 768) anti-glare, 220 nits
+• Memory:   4 GB LPDDR3 1866MHz (Soldered)
+• Hard Drive:   32 GB eMMC
+• AC Adapter:   45W
+• Graphics:  Integrated PowerVR GX6250
+• Battery:   3 Cell Li-Polymer 45Wh
+• Bluetooth:  Bluetooth® 4.1
+• Camera:  720p HD
+• Keyboard:   US English
+• Wireless:  802.11AC (2 x 2)</t>
+  </si>
+  <si>
+    <t>mainframe</t>
+  </si>
+  <si>
+    <t>IBM z15</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>IBM DS8900F</t>
+  </si>
+  <si>
+    <t>• IBM® DS8900F is the next generation of enterprise data systems built 
+with the most advanced POWER9™ processor technology. 
+• Designed for data intensive and mission-critical workloads, DS8900F adds 
+next-level performance, data protection, resiliency and availability across your 
+hybrid multicloud solutions. 
+• Advanced data protection against malware and ransomware.
+• Ultra-low application response times
+• Optimized for IBM z15 and IBM LinuxONE III by design
+• Advanced disaster recovery with 3 and 4 site replication 
+• Safeguarded Copy for malware and ransomware protection
+• Transparent Cloud Tiering
+• 1,474 TB maximum physical capacity
+• From 4 to 32 host ports
+• 16 POWER9 cores per system</t>
+  </si>
+  <si>
+    <t>LinuxOne III-1 frame</t>
+  </si>
+  <si>
+    <t>IBM z14 dual frame</t>
+  </si>
+  <si>
+    <t>IBM z14</t>
+  </si>
+  <si>
+    <t>• The IBM z14® family of servers is the core of trusted digital experiences. 
+• These IBM Z systems offer the ultimate protection for your data while 
+simplifying compliance to regulations. 
+• They also allow you to apply machine learning to your most valuable
+ data to create deeper insights. 
+• The IBM z14 single-frame model can process 850 million encrypted 
+transactions per day in the space of two floor tiles.
+• It's a perfect fit for the data center and businesses of all sizes.
+• Efficiently deliver high-quality services at speed and at scale, in the form 
+factor that meets your business needs.
+• Gain business continuity with a reliable platform. 
+• Create value through secure application and data innovation.
+• Uncover crucial insights through machine learning.
+• Specialty engines: IFL, zIIP, Coupling Facility, SAP (for I/O)
+• Encryption: EAL5+, Galois Counter Mode, ECC Digital signature,
+ Smartcards, CPACF, Crypto Express6S
+• I/O: FICON, FCP, zHyperLink, Open Sys Adpt, HiperSockets, SMC-D,
+ 10 GbE RoCE2/SMC-R, 25GbE RoCE Exp2
+• Channels: OSA-Express6S, OSA-Express7S 25 GbE SR</t>
+  </si>
+  <si>
+    <t>IBM z15 single-frame</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>ThinkSystem SD650 High-Density Server</t>
+  </si>
+  <si>
+    <t>ThinkSystem SD530 Server</t>
+  </si>
+  <si>
+    <t>ThinkSystem SR530 Rack Server</t>
+  </si>
+  <si>
+    <t>ThinkSystem ST550 Tower Server</t>
+  </si>
+  <si>
+    <t>Desktop</t>
+  </si>
+  <si>
+    <t>Apple iMAC 27-inches 2020</t>
+  </si>
+  <si>
+    <t>Apple iMAC 21.5-inches 2020</t>
+  </si>
+  <si>
+    <t>• All-in-One Desktop Computer
+• Processor: 3.0GHz 6-core Intel Core i5, Turbo Boost up to 4.1GHz
+• Memory: 8GB of 2666MHz DDR4 memory
+• Storage: 256GB SSD - Configurable to 1TB Fusion Drive
+• Graphics: Radeon Pro 560X with 4GB of GDDR5 memory
+• Screen: 21.5'' 4096x2304 Retina 4K display</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaCentre AIO AMD desktop</t>
+  </si>
+  <si>
+    <t>• Great small business tiny desktop PC
+• Powerful computing space-saving design
+• Up to 8th Gen Intel® Core™ processing
+• Compact- 96% smaller than a full-sized desktop
+• Budget friendly
+• Packed with DDR4 memory
+• Super high-speed SSD storage
+• Doesn’t sacrifice space for functionality.
+• Processor:  8th Generation Intel® Core™ i5-8265U Processor (1.60 GHz, 
+up to 3.90 GHz with Turbo Boost, 4 Cores, 8 Threads, 6 MB Cache)
+• Operating System:  Windows 10 Pro 64
+• Memory:  8 GB DDR4 2400MHz
+• Hard Drive: 256 GB PCIe SSD
+• Graphics:  Integrated Intel® UHD Graphics
+• Keyboard:  USB - US English
+• Dimensions (W x D x H):  7.05" x 1.4" x 7.2″
+• WiFi Wireless LAN Adapters:  I ntel® 8265 802.11AC (2 x 2) &amp; Bluetooth® 4.2</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop ThinkCentre M920X</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop ThinkCentre-M90t</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop Tower 7i</t>
+  </si>
+  <si>
+    <t>• Our flagship gaming desktop pulls all the stops
+• Up to 10th Gen Intel® Core™ i9K processors 
+• Up to Ampere-based NVIDIA® GeForce RTX™ 20 Series graphics
+• Fully future-proof your build with the Z490 motherboard allowing 
+for expansion.
+• Optional RGB Liquid cooling
+• Processor:  10th Generation Intel® Core™ i7-10700K Processor with
+ vPro™ (3.80 GHz, up to 5.10 GHz with Turbo Boost, 8 Cores, 16 Threads, 
+16 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Memory:  16 GB DDR4 2933MHz (2 x 8 GB)
+• Hard Drive:  2 TB 7200 RPM HDD + 512 GB PCIe SSD
+• Graphics:  NVIDIA® GeForce® RTX™ 2080 Super 8GB
+• Keyboard:  USB - US English
+• WiFi Wireless LAN Adapters:   802.11AX (2 x 2) &amp; Bluetooth® 5.0
+• Power Supply:  650W
+• Cooling System:  150W Air Cooling
+• Motherboard:  CML Z490 ATX
+• Dimensions (H x W x D):  18.6” x 8.3” x 17.7”</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop Legion Tower 5</t>
+  </si>
+  <si>
+    <t>• By popular demand: the AMD Ryzen™ 3000 Series desktop processors
+• Able to produce smooth high refresh rate gaming.
+• 512GB PCIe SSD &amp; 1TB SATA HDD 7200 RPM for massive storage 
+and fast load times.
+• Show off your hardware with a transparent side panel and RGB lighting.
+• Processor:  AMD® Ryzen™ 5 3600 Processor (3.60 GHz, up to 4.20 GHz 
+Max Boost, 6 Cores, 12 Threads, 32 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Memory:  8 GB DDR4 3200MHz
+• Hard Drive:  512 GB PCIe SSD
+• Graphics:  AMD Radeon™ RX 5500 4GB
+• Networking:   Integrated Gigabit Ethernet Port
+• Keyboard:  USB - US English
+• Pointing Device:  USB Mouse
+• WiFi Wireless LAN Adapters:   802.11AX (2 x 2) &amp; Bluetooth® 5.1
+• Cooling System:   65W Air-Cooler
+• Dimensions (H x W x D):  15.6" x 8.1" x 16.2"</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop Yoga A940</t>
+  </si>
+  <si>
+    <t>• Features 27" tilting 4K UHD display with pen support.
+• Powerful Intel® Core™ processors provide fast responsiveness.
+• Content creation dial lets you scroll &amp; calibrate in your favorite 
+programs.
+• Models with IR camera uses facial recognition to log in.
+• Convenient wireless charging dock and a groove for pen storage.
+• Processor: 9th Generation Intel® Core™ i7-9700 Processor with vPro™ 
+(3.0 GHz, up to 4.70 GHz with Turbo Boost, 8 Cores, 8 Threads, 12 MB Cache)
+• Operating System: Windows 10 Home 64
+• Display Type:  27" 4K UHD (3840 x 2160) IPS, anti-glare, touchscreen, 350 
+nits
+• Memory:  1 TB 5400 RPM HDD + 256 GB PCIe SSD
+• Graphics:   AMD Radeon™ RX 560 4GB
+• Camera:  IR camera
+• Keyboard:  Wireless - US English
+• Pointing Device:   Wireless Mouse
+• WiFi Wireless LAN Adapters:   802.11AC (2 x 2) &amp; Bluetooth® 4.2
+•Dimensions (W x D x H):  25” x 18.3” x 9.6”</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop IdeaCentre A540</t>
+  </si>
+  <si>
+    <t>• Up to 9th Gen processors with next-gen memory and storage
+• Tiny in name, but not on performance
+• Compact PC boasts enhanced security, reliability, and energy 
+efficiency
+• Fast, responsive, and versatile
+• Processor:  9th Generation Intel® Core™ i3-9100T Processor (3.10 GHz, 
+up to 3.70 GHz with Turbo Boost, 4 Cores, 4 Threads, 6 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Memory:   4GB DDR4 2666MHz
+• Graphics:  Integrated Graphic Card
+• Hard Drive:   500GB Hard Disk Drive, 7200rpm, 2.5", SATA3
+• Form Factor:  Tiny B360 CFL-R
+• Networking:   Integrated Gigabit Ethernet Port
+• Keyboard:   Black USB Traditional Keyboard – English
+• Pointing Device:   USB Black Mouse
+• Dimensions (H x W x D):   7.0" x 1.4" x 7.2"</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop IdeaCentre 5i</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop IdeaCentre 310S</t>
+  </si>
+  <si>
+    <t>• Around half the size of a regular desktop PC, great for small spaces.
+• Reliable AMD processing that handles all your needs, perfect for 
+working from home.
+• Multiple ports help you to stay connected including USB 2.0 &amp; 3.1, 
+HDMI out &amp; VGA.
+• DVD recordable drive &amp; seamless setup.
+• Wired USB Keyboard &amp; mouse included.
+• Processor:  7th Generation AMD A6-9225 APU (2.60 GHz, up to 3.0
+ GHz Max Boost, 2 Cores, 2 Threads, 1 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Memory:  4 GB DDR4 2666MHz
+• Hard Drive:  1 TB 7200 RPM
+• Optical Drive:  DVD-RW
+• Graphics:  Integrated AMD Radeon™ R4 Graphics
+• Keyboard:  USB - US English
+• Pointing Device:  USB Mouse
+• WiFi Wireless LAN Adapters:  802.11AC (1 x 1) &amp; Bluetooth® 4.0
+• Dimensions (W x D x H):   11.69" x 3.54" x 13.54"</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop ThinkCentre-M720</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop ThinkCentre-M630e</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop ThinkCentre-M90n</t>
+  </si>
+  <si>
+    <t>• The most stylish, powerful 15" laptop.
+• Built rugged, ultra-thin, light carbon fiber.
+• Offers the latest most powerful processors.
+• Tested against 12 military-grade requirements.
+• Top hardware and software security features.
+• Great for professionals on-the-go or working from home.
+• Processor:  10th Generation Intel® Core™ i7-10750H Processor (2.60 GHz,
+ up to 5.00 GHz with Turbo Boost, 6 Cores, 12 Threads, 12 MB Cache)
+• Operating System: Windows 10 Home 64               
+• Memory: 8 GB DDR4 2933MHz
+• Hard Drive: 256 GB PCIe SSD, OPAL
+• Display Type: 15.6" FHD (1920 x 1080) IPS, anti-glare, 300 nits
+• Graphics: NVIDIA® Quadro® T1000 with Max-Q 4GB
+• Camera: 720p HD
+• Wireless: Intel® Wi-Fi 6 AX201 802.11AX with vPro™ (2 x 2) &amp; Bluetooth® 
+5.1
+• Fingerprint Reader: Fingerprint Reader
+• Keyboard: Backlit - US English</t>
+  </si>
+  <si>
+    <t>•  Equipped with latest 11th Gen Intel® Core™ processors.
+•  Brand new Intel® Evo™ platform provides enhanced performance 
+&amp; responsiveness
+•  14 inch display, up to UHD optimized with Dolby Vision™.
+•  Thunderbolt™ 4 offers high-speed connection.
+•  Processor:  11th Generation Intel® Core™ i5-1135G7 Processor (2.40 GHz, 
+up to 4.20 GHz with Turbo Boost, 4 Cores, 8 Threads, 8 MB Cache)
+•  Operating System:  Windows 10 Home 64
+• Display Type:  14.0" FHD (1920 x 1080) IPS, touchscreen with Dolby 
+Vision™, 400 nits
+• Memory:  8 GB LPDDR4X 4267MHz (Soldered)
+• Hard Drive:  256 GB PCIe SSD
+• Graphics:   Integrated Intel® Iris® Xe Graphics
+• Camera:  720p HD
+• Pen:   Lenovo Active Pen
+• Fingerprint Reader:  Fingerprint Reader
+• Keyboard:  Backlit - US English
+• Wireless:  Wi-Fi 6 802.11AX (2 x 2) &amp; Bluetooth® 5.1</t>
+  </si>
+  <si>
+    <t>• Apple M1 chip with 8 core CPU, 8 core GPU, and 16 core Neural Engine 
+• Up to 17 hours wireless web
+• 8GB unified memory 
+• 256GB SSD storage 
+• 13-inch Retina display with True Tone  
+• Two Thunderbolt / USB 4 ports
+• Operating System: MacOS 
+• Memory: 8GB unified memory 
+• Storage: 256GB SSD storage
+• Camera: 720p FaceTime HD Camera
+• Wi-Fi:  802.11ax Wi-Fi 6 wireless networking  IEEE 802.11a/b/g/n/ac
+ compatible
+• Bluetooth: Bluetooth 5.0 wireless technology
+• Height: 0.61 inch (1.56 cm)
+• Width: 11.97 inches (30.41 cm)
+• Depth: 8.36 inches (21.24 cm)
+• Weight: 3.0 pounds (1.4 kg)3
+• 61W USB-C Power Adapter and a USB-C Charge Cable included.</t>
+  </si>
+  <si>
+    <t>• Up to 14 hours of battery life per charge 
+• 11th Gen Intel Core i7 
+• Up to 40GB Dual Channel DDR4 
+• System76 Open Firmware with coreboot 
+• Operating System: Ubuntu 20.04 LTS (64-bit)
+• Processor: 11th Gen Intel® Core i7-1165G7: Up to 4.70 GHz – 
+12MB Cache - 4 Cores - 8 Threads
+• Display: 14.1″ 1920×1080 FHD, Matte Finish
+• Graphics: Intel® Iris® Xe Graphics
+• Memory: Up to 40 GB DDR4 @ 3200 MHz
+• Storage: 2 x M.2 SSD (1x PCIe gen4 + 1x PCIe gen3 or SATA). 
+Up to 4TB total
+• Network: Intel® Dual Band Wi-Fi 6, Bluetooth 5
+• Dimensions: 12.64″ × 8.5″ × 0.61″ (32.1 × 21.6 × 1.55 cm)
+• Battery:  Li-Ion - 73 Wh
+• Camera: 1.0M 720p HD Webcam
+• Audio: Stereo Speakers, 1× Headphone/Microphone Combo</t>
+  </si>
+  <si>
+    <t>Apple iMAC 27-inches 2010</t>
+  </si>
+  <si>
+    <t>Apple iMac Pro 27 Retina 5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+• 27-inch (diagonal) Retina 5K display; 5120-by-2880 resolution with 
+support for one billion colors
+• 32GB of 2666MHz DDR4 ECC memory
+• 1080p FaceTime HD camera
+• Processor: 3.2GHz 8-core Intel Xeon W processor, Turbo Boost 
+up to 4.2GHz, 19MB cache 
+• Memory: 32GB 2666MHz DDR4 ECC memory 
+• Storage: 1TB SSD storage1 
+• Graphics: Radeon Pro Vega 56 graphics processor with 8GB of 
+HBM2 memory 
+• Four USB 3 ports 
+• Four Thunderbolt 3 (USB-C) ports 
+• Height: 20.3 inch (51.6 cm) 
+• Width: 25.6 inches (65 cm) 
+• Depth: 8 inches (20.3 cm) with stand 
+• Weight: 21.5 pounds (9.7 kg)2 </t>
+  </si>
+  <si>
+    <t>Desktop System76 Thelio</t>
+  </si>
+  <si>
+    <t>• Compact Performance. Thelio occupies about as much desk space
+ as a sheet of paper.
+• Thelio desktops are designed to provide easy access to your motherboard 
+for upgrades and repairs
+• Extreme Versatility 
+• AMD Ryzen Core CPUs 
+• Up to 64GB of Memory 
+• Up to 24TB of Storage 
+• Graphics:  AMD® or NVIDIA® Graphics
+• Memory: Up to 64 GB Dual Channel DDR4 at 3200 MHz 
+• Storage:  Up to 24 TB, M.2 NVMe and 2.5″ SATA drives
+• Rear Ports: 1× USB 3.2 Gen 2 Type-C
+• Dimensions:  Height × Width × Depth (12.87″ × 8.15″ × 11.46″)</t>
+  </si>
+  <si>
+    <t>• Premium 10th Generation Intel® Core™ processors
+• Get up to 2x performance with NVIDIA® GeForce® GTX 1650 graphics
+• 15.6” FHD IPS display, up to 60Hz
+• Features a more robust dual fan and vent system than previous gens.                      
+• Processor:  10th Generation Intel® Core™ i5-10300H Processor (2.50 GHz)
+• Operating System: Windows 10 Home 64
+• Display Type: 15.6" FHD (1920 x 1080) IPS, anti-glare, 250 nits, 120Hz
+• Memory:  8 GB DDR4 2933MHz
+• Hard Drive:  512 GB PCIe SSD
+• Graphics:  NVIDIA® GTX 1650 Ti 4GB
+• Bluetooth: Bluetooth® 5.0
+• Camera:  720p HD
+• Keyboard:  Backlit - US English
+• Wireless:  802.11AX (2 x 2)</t>
+  </si>
+  <si>
+    <t>• High performance AMD Ryzen™ 4000 H-Series processors.
+• Premium NVIDIA® GeForce® GTX graphics.
+• 15.6" FHD display with up to 120Hz refresh rate.
+• SSD storage options &amp; DDR4 memory.
+• Features a robust dual fan and vent system &amp; spacious keyboard.
+• Processor:   Up to AMD® Ryzen™ 7 4800H Processor (2.90 GHz,8 Cores)
+• Operating System: Windows 10 Home
+• Graphics: NVIDIA® GeForce® GTX 1650 4GB
+• Memory: 8 GB DDR4 3200MHz
+• Display: 15.6" FHD (1920 x 1080) IPS, anti-glare, 250 nits, 120Hz
+• Battery: Up to 5 hours*
+• Storage: 1 TB 5400 RPM HDD + 512 GB PCIe SSD
+• Audio: 2 x 1.5W speakers with Dolby Audio™
+• Camera: 720 HD webcam with privacy shutter
+• Dimensions (W x D x H):   14.13" x 9.83" x .98"
+• Weight: Starting at 2.2kg / 4.8lbs
+• Color:  Onyx Black
+• Connectivity: 802.11AC (2 x 2) &amp; Bluetooth® 5.0</t>
+  </si>
+  <si>
+    <t>• Intel® Xeon® or 10th Gen Intel® Core™ processors options.
+• Ultra-powerful NVIDIA® Quadro RTX graphics.
+• Redesigned interior that enhances thermals to improve cooling.
+• Amazing audio and visuals experience.
+• Military grade testing for durability.
+• Perfect for students, engineers, CAD, and industrial professions. 
+• Processor:  10th Generation Intel® Core™ i5-10400H Processor with 
+vPro™ (2.60 GHz, up to 4.60 GHz with Turbo Boost, 4 Cores, 8 Threads)
+• Operating System: Windows 10 Home 64               
+• Memory:  8 GB DDR4 2933MHz
+• Hard Drive: 256 GB PCIe SSD, OPAL
+• Display Type: 15.6" FHD (1920 x 1080) IPS, anti-glare, 300 nits
+• Graphics:  NVIDIA® Quadro® T1000 4GB
+• AC Adapter:  170W AC
+• Camera:   720p HD
+• Keyboard: Backlit - US English
+• Wireless: Intel® Wi-Fi 6 AX201 802.11AX with vPro™ &amp; Bluetooth® 5.1</t>
+  </si>
+  <si>
+    <t>• Slimmer, sleeker and lighter version.
+• Up to 18.3-hour of battery life.
+• Built-in suite of ThinkShield security features.
+• Intel® Core™ technology for high performance.
+• Enhanced audio for ultimate surround sound.
+• Processor: 8th Generation Intel® Core™ i7-8665U Processor with vPro™ 
+(1.90 GHz, up to 4.80 GHz with Turbo Boost, 4 Cores, 8 Threads, 8 MB Cache)
+• Operating System: Windows 10 Pro 64
+• Display Type: 14.0" UHD (3840 x 2160) IPS, glossy with Dolby Vision™,
+ HDR 400, 500 nits
+• Memory: 16 GB LPDDR3 2133MHz (Soldered)
+• Hard Drive: 1 TB PCIe SSD
+• Graphics: Integrated Intel® UHD Graphics
+• Battery: 4 Cell Li-Ion 51Wh
+• Camera: IR &amp; 720p HD
+• Fingerprint Reader: Fingerprint Reader
+• Keyboard: Backlit - US English
+• Wireless: Intel® 9560 802.11AC (2 x 2) &amp; Bluetooth® 5.1 with vPro™</t>
+  </si>
+  <si>
+    <t>• A 13.3” business laptop with a 12” footprint 
+• More than 17.6 hours* of battery life 
+• Enhanced security measures like PrivacyGuard with PrivacyAlert 
+and ThinkShutter
+• Processor:  8th Generation Intel® Core™ i7-8665U Processor with vPro™ 
+(1.90 GHz, up to 4.80 GHz with Turbo Boost, 4 Cores, 8 Threads, 8 MB Cache)
+• Operating System: Windows 10 Pro 64
+• Display Type: 13.3" HD (1366 x 768) anti-glare, 250 nits
+• Memory: 16 GB DDR4 2400MHz (Soldered)
+• Hard Drive: 256 GB PCIe SSD
+• Graphics : Integrated Intel® UHD Graphics
+• Camera: 720p HD
+• Fingerprint Reader: No Fingerprint Reader
+• Keyboard: US – English
+• Wireless: Intel® 9560 802.11AC (2 x 2) &amp; Bluetooth® 5.1 with vPro™</t>
+  </si>
+  <si>
+    <t>• First version of Macbook Air after Powerbook era in 2018 (Refurbished)
+• Incredible small but still offer similar features 
+to the larger devices at the time
+• Processor: 1.6 GHz Intel Core 2 Duo processor 
+• Processor Speed: 2.13 GHz
+• Memory: 2 GB RAM of onboard 667 MHz DDR2 SDRAM with 80 GB PATA
+ (4200 RPM) hard drive
+• Storage: 80 GB HDD
+• Battery Life: 5 hours
+• Architecture: 32k/32k Level 1 Cache and 4 MB (on chip) Level 2/Level 3 
+cache
+• Screen: 13.3” widescreen TFT LED-backlit active-matrix glossy display and a 
+1280 x 800 native resolution
+• Features iSight video camera, AirPort Extreme (802.11a/b/g/n) for wifi, 
+Bluetooth 2.1+ EDR allowing for quick PAN (Personal Area Network) 
+connections and transfers</t>
+  </si>
+  <si>
+    <t>• Apple‘s thinnest, ligihtest notebook suitable for complex workflows in 
+photography, coding, editing.
+• Processor: Apple M1 chip
+• Operating System: macOS Big Sur
+• 8 core CPU, 8 core GPU
+• 16 core Neural Engine 
+• Up to 20 hours battery life
+• Memory (RAM): 8GB 
+• Storage: 256GB SSD storage 
+• Screen: 13.3" 2560 x 1600 LED-Backlit Display
+• Backlit Magic Keyboard - US English 
+• Touch Bar and Touch ID 
+• Ports: 2x Thunderbolt / USB 4 ports
+• Features 802.11ax Wi-Fi 6 + Bluetooth 5.0, Integrated 720p FaceTime HD
+ Camera, Three-mic array with directional beamforming</t>
+  </si>
+  <si>
+    <t>• The 12-inch MacBook (2017) has become the go-to for those who place
+ a premium on thin and light design, as well as want access to the Apple 
+ ecosystem (Refurbished)
+• Storage: 256GB SSD (PCIe)
+• CPU: 1.2GHz Intel Core m3-7Y32 (dual-core, 4MB cache, up to 3.0GHz)
+• RAM: 8GB LPDDR3 (1,867MHz)
+• Battery Life: Up to 12 hours
+• Graphics: Intel HD Graphics 615
+• Screen: 12-inch Retina (2,304 x 1,440, 226 ppi) LED (IPS, 16:10 aspect ratio)
+• Ports: 1 x USB 3.1 Type-C, 3.5mm headphone/mic jack
+• Connectivity: 802.11ac Wi-Fi; Bluetooth 4.2
+• Cameras: 480p FaceTime camera
+• Weight: 2.03 lbs (0.92kg)</t>
+  </si>
+  <si>
+    <t>• Up to 9 hours of battery life per charge 
+• 15.6" Matte IPS Display 
+• 11th Gen Intel Core i7 
+• Up to 64GB Dual Channel DDR4 
+• System76 Open Firmware with coreboot
+• Operating System: Ubuntu 20.04 LTS(64-bit)
+• Processor: 11th Gen Intel® Core i7-1165G7: Up to 4.7 GHz - 
+12MB Cache - 4 Cores - 8 Threads
+• Display:  15.6″ 1920×1080 FHD, Matte Finish
+• Graphics:  Intel® Iris Xe Graphics
+• Memory:  Up to 64GB dual-channel DDR4 @ 3200MHz
+• Storage:  2 x M.2 SSD (1x PCIe gen4 + 1x PCIe gen3 or SATA).
+ Up to 4TB total.
+• Camera: 1.0M 720p HD Webcam
+• Battery: Li-Ion-  73 Wh 
+• Dimension:  14.06″ × 8.68″ × 0.78″ (35.7 × 22.05 × 1.99cm)
+• Networking:  Gigabit Ethernet, Intel® Dual Band Wi-Fi 6, Bluetooth 5
+• Video Ports: HDMI, USB 3.2 Gen 2 Type-C w/ DisplayPort 1.4</t>
+  </si>
+  <si>
+    <t>overall review</t>
+  </si>
+  <si>
+    <t>• A makeover for home computing.
+• Reliable AMD Ryzen™ processing and seamless DDR4 memory.
+• Near-borderless 24 inch FHD touchscreen display with webcam privacy 
+shutter for additional security.
+• Integrated AMD Radeon™ graphics.
+• Attractive space-saving design that looks great in any room.
+• Processor:  AMD® Ryzen™ 3 4300U Processor (2.70 GHz, up to 3.70 GHz
+ Max Boost, 4 Cores, 4 Threads, 4 MB Cache)
+•  Operating System:  Windows 10 Home 64
+• Display Type:    23.8” FHD (1920 x 1080) IPS, touchscreen, 250 nits
+• Memory:    8 GB DDR4 3200MHz (2 x 4 GB)
+•  Hard Drive:    1 TB 5400 RPM HDD
+• Optical Drive:  DVD-RW
+•  AC Adapter:  90W
+• Graphics:  Integrated AMD Radeon™ Graphics
+• Camera:   720p HD
+• Keyboard:   Wireless - US English
+• Dimensions (H x W x D):  21.30" x 7.28" x 17.61"
+• WiFi Wireless LAN Adapters:   802.11AC (2 x 2) &amp; Bluetooth® 5.0</t>
+  </si>
+  <si>
+    <t>• Designed to tackle intensive tasks.
+• Tiny PC, huge impact. Compact PC that makes a big impact
+• Features powerful Intel® processors with vPro™ options.
+• Highly responsive memory, and lightning-fast storage options.
+• MIL-SPEC tested for durability.
+• Supports up to six independent displays.
+• Dimensions (W x D x H):   7.0" x 1.4" x 7.2"
+• Processor:  8th Generation Intel® Core™ i7-8700 Processor with 
+vPro™ (3.20 GHz, up to 4.60 GHz with Turbo Boost, 6 Cores, 12 Threads,
+ 12 MB Cache)
+• Operating System: Windows 10 Pro 64
+• Memory:   16 GB DDR4 2667MHz
+• Hard Drive:  256 GB PCIe SSD
+• Graphics:   Integrated Intel® UHD Graphics 630
+• Networking:   Integrated Gigabit Ethernet Port
+• Form Factor:    135W 88% Power Supply
+• Keyboard:   USB - US English
+• WiFi Wireless LAN Adapters:  Intel® 9560 802.11AC (2 x 2) &amp; Bluetooth® 
+5.0 with vPro™</t>
+  </si>
+  <si>
+    <t>• Up to 10th Gen Intel® Core Processing with vPro.
+• Business on a higher level.
+• Tons of memory, storage and graphic options.
+• Can connect up to to three displays.
+• Armed with ThinkShield to keep your system safe.
+• Optional Modern Standby.
+• Offers a host of expansion solutions.
+• Includes a standard USB keyboard &amp; mouse.
+• Great for the work environment or home office.
+• Processor:   Up to 10th Generation Intel® Core™ i9-10900 Processor with 
+vPro™ (2.80GHz, up to 5.20GHz with Turbo Boost, 10 Cores, 20 Threads,
+ 20MB Cache)
+• Operating System:   Windows 10 Home 64
+• Memory:  Up to 128GB DDR4 2667MHz
+• Storage:  Up to 2TB PCIe SSD
+• Graphics:  Integrated Intel® UHD graphics
+• Dimensions (W x H x D):  6.7" x 14.8" x 11.7"</t>
+  </si>
+  <si>
+    <t>• Premium 9th Gen Intel® Core™ processing provides speed &amp; power
+• 27 inch QHD touchscreen and built-in IR camera makes it easy to 
+chat with friends or host a meeting
+• Easy plug-and-play setup with convenient wireless charging
+• Wireless mouse &amp; keyboard included
+• Exceptional sound with JBL® by Harman® speakers
+• Ideal all in one computer for both home &amp; business
+• Processor:  9th Generation Intel® Core™ i5-9400T Processor (1.80 GHz, 
+ up to 3.40 GHz with Turbo Boost, 6 Cores, 6 Threads, 9 MB Cache)
+• Operating System:  Windows 10 Home 64
+• Display Type:  27.0" QHD (2560 x 1440) IPS, anti-glare, touchscreen, 250 nits
+• Memory:   8 GB DDR4 2667MHz
+• Hard Drive:  256 GB PCIe SSD
+• Graphics:  Integrated Intel® UHD Graphics 630
+• Camera:  IR &amp; 1080p HD
+• Keyboard:  Wireless - US English
+• Pointing Device:  Wireless Mouse
+• WiFi Wireless LAN Adapters:  802.11AC (1 x 1) &amp; Bluetooth® 4.0
+• Dimensions (H x W x D):   24.66" x 4.11" x 14.87"</t>
+  </si>
+  <si>
+    <t>• Run your programs &amp; apps seamlessly with up to 10th Gen Intel® 
+Core™ processors.
+• A 24 inch FHD touchscreen display boasts thin, narrow bezels for a 
+dominant viewing experience.
+• Video calls &amp; recording are made easy using a hybrid FHD RGB IR
+ camera with physical privacy shutter.
+• Makes a great work from home or learn from home desktop PC.
+• Processor:  10th Generation Intel® Core™ i5-10400T Processor (
+2.00 GHz, up to 3.60 GHz with Turbo Boost, 6 Cores, 12 Threads, 
+12 MB Cache)
+• Operating System: Windows 10 Pro 64
+•  Display Type:  23.8" FHD (1920 x 1080) IPS, touchscreen, 250 nits
+• Memory:   8 GB DDR4 2667MHz (2 x 4 GB)
+• Hard Drive:   256 GB PCIe SSD
+• Graphics:   Integrated Intel® UHD Graphics 630
+• Camera:    IR &amp; 1080p HD
+• Keyboard:   Wireless - US English
+• WiFi Wireless LAN Adapters:   802.11AC (2 x 2) &amp; Bluetooth® 5.0
+• Dimensions (H x W x D):   17.75” X 7.28” X 17.13”</t>
+  </si>
+  <si>
+    <t>• Up to 8th Gen Intel® Core™ vPro™ processing and DDR4 memory.
+• Gives you powerful desktop performance and extra workspace.
+• Durable and secure, it can be deployed almost anywhere with a single 
+cable.
+• A modular design and supports USB-C docking, for more flexibility.
+• Processor:  Intel® Core™ i3-8145U (2.10GHz, up to 3.90GHz 
+ with Turbo Boost, 2 Cores, 4MB Cache)
+• Operating System:  Windows 10 Home 64 
+• Memory:   8GB DDR4 2666MHz (Soldered)
+• Graphics:  Integrated Intel® UHD graphics
+• Hard Drive:   256GB Solid State Drive, M.2 PCIe-NVMe, Opal
+• Keyboard:  USB Traditional Keyboard - US English
+• Pointing Device:  USB Mouse – Black
+• Dimensions (W x D x H):  7.05" x 3.46" x 0.87"</t>
+  </si>
+  <si>
+    <t>• Powered by AMD Ryzen™ Threadripper™ PRO
+• Choice of operating systems.
+• Up to 2 NVIDIA® Quadro® graphics cards.
+• Combines legendary reliability &amp; innovation with professional manageability 
+and enterprise-class support.
+• Performance-tuned and ISV-certified for multithreaded application 
+environments.
+• An air-cooled thermal system.
+• Built-in suite of security solutions.
+• Perfect for architects, engineers, scientists, geophysicists, and more.
+• Processor:   Up to AMD Ryzen™ Threadripper™ Pro 3995WX Processor (
+2.70 GHz, up to 4.20 GHz Max Boost, 64 Cores, 128 Threads, 
+32 MB Cache)
+• Operating System:  Windows 10 Pro
+• Memory:   Up to 64GB DDR4 3200MHz RDIMM ECC
+• Power Supply Unit:   1000W
+• Storage:  Up to 2 x 2TB M.2
+• Graphics:    NVIDIA® Quadro® RTX™ 8000 48GB</t>
+  </si>
+  <si>
+    <t>• Simplified life for developers with a cloud native experience.
+• Greater performance and scalability for mission-critical data encryption.
+• Enhanced instant recovery delivers ultimate uptime for high availability.
+• Flexible compute for any business, any cloud.
+• Flexible computer: z15 systems are made for businesses of all sizes – 
+from start-ups to large enterprises – and are available through your choice of 
+public, private or hybrid cloud.
+• The ideal platform for sensitive data and critical applications in the cloud,
+ IBM Z can protect your data and manage privacy by policy across your 
+ ecosystem.
+• Security: Secure Execution for Linux®, CPACF, Crypto Express7S.
+• Instant Recovery: IBM System Recovery Boost sysplex enhancements
+• Specialty engines: IFL, zIIP, Internal Coupling Facility, SAP (for I/O)
+• I/O: FICON Express, zHyperLink Express, RoCE and OSA-Express
+• Integrated Accelerators: Crypto, compression and sort
+• Flexibility: IBM z15 T02 systems offer a reserved space to collocate IBM 
+Storage.
+• Linux on Z (our partners are Red Hat, Canonical and SUSE)</t>
+  </si>
+  <si>
+    <t>• The new IBM LinuxONE III single-frame and multi-frame systems 
+ deliver security, privacy and resiliency at scale as part of your enterprise-wide
+ cloud infrastructure.
+• The ideal platform for sensitive data and critical applications in the cloud,
+ LinuxONE III can protect your data and manage privacy by policy across your 
+ecosystem.
+• Minimize the impact of internal and external attacks by isolating workloads 
+to ensure continuous service.
+• Take advantage of a platform available to businesses of all sizes, from 
+start-ups to the largest enterprise. Choose public, private or hybrid cloud.
+• Specialty engines: IFL, LPAR, Systems Assistant Processors (for I/O), 
+190 Cores
+• Encryption: EAL5+, ECC Digital signature, Smart Cards, CPACF,
+ Crypto Express7S, SSC4ICP
+• I/O: FICON, FCP, zHyperLink, Open Sys Adpt, HiperSockets, 
+SMC-D, 10 GbE RoCE2/SMC-R, 25GbE RoCE Exp2
+• Channels: OSA-Express6S, OSA-Express7S 25 GbE SR
+• NVMe boot support
+• Supported operating systems: Red Hat Enterprise Linux 7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Liquid cooling innovation for a highly efficient data center
+• The SD650's direct water cooling design delivers maximum performance,
+ extreme density, and leading energy efficiency in the data center
+• Form Factor:  Full-wide 1U tray (six per n1200 Enclosure)
+• Chassis:  NeXtScale n1200 Enclosure (6U)
+• Processors:  2 second-generation Intel® Xeon® Scalable Processor Scalable 
+family CPUs per node; 2x nodes per 1U tray
+• Memory:  Up to 1.5TB using 12x 2933MHz TruDDR4 DIMMs per node or 
+up to 2TB (512GB x4) using Intel® Optane™ DC Persistent Memory
+• I/O Expansion:  1x 50mm width ML2 slot and 1x PCIe x16 slot for 
+EDR InfiniBand or Intel Omni Path, per server node
+• Internal Storage:  Up to 2x 2.5” SATA SSDs (7mm height) or 1x 2.5” 
+ NVMe SSDs (15mm height) per node; up to 2x M.2 SATA SSDs
+• Power Management:  Rack-level power capping and management via Extreme 
+Cloud Administration Toolkit (xCAT)
+• Network Interface:  2x 1GbE BaseT NIC per node; additional high-speed
+  network adapters (InfiniBand or Omni Path) can be installed in available front-
+  accessible PCIe x16 adapter slot. </t>
+  </si>
+  <si>
+    <t>• The highly agile ThinkSystem SD530 is a modular 2U/4-node system that 
+excels at both HPC and enterprise workloads—on the same platform—
+to increase flexibility while reducing costs.
+• Form Factor/Height:  2U rack enclosure; 4 independent compute nodes
+• Processor:  Up to 2 second-generation Intel® Xeon® Platinum processors,
+ up to 205W
+• Memory:   Up to 2TB in 16x slots, using 128GB 3DS RDIMMs; 2933MHz 
+TruDDR4
+• Expansion Slots:  1x shuttle per D2 enclosure: either x8 PCIe Shuttle with 8x 
+PCIe 3.0 x8 slots (2 per node); or x16 PCIe Shuttle with 4x PCIe 3.0 x16 slots 
+(1 per node). Up to 2x external 1U trays (with up to 2 GPUs per node each)
+• Network Interface:  Optional 8-port EIOM 10Gb SFP+ (2 ports per node); 
+optional 8-port EIOM 10GbaseT RJ45 (2 ports per node)
+• Power Supply:   2x hot-swap/redundant 1+1 1600W/2000W; or 
+2x non-redundant 1100W
+• OSes Supported:  Red Hat
+• Hot-Swap Components:  Power supplies, fans, SAS/SATA/NVMe storage 
+devices; compute nodes are warm-swap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Affordable 1U rack server optimized for enterprise.
+• ThinkSystem SR530 is an ideal budget-friendly, two-processor, 
+1U rack server, designed to tackle entry cloud, hosting, file serving, and 
+scale-out workloads.
+• Form Factor/Height:  1U rack server
+• Number of Processors:  Up to 2x second-generation Intel® Xeon® 
+Platinum processor, up to 125W
+• Memory:  Up to 768GB in 12x slots, using 64GB DIMMs; 2666MHz / 
+2933MHz TruDDR4
+• Expansion Slots:   Up to 3x PCIe 3.0, via multiple riser options (either
+ all-PCIe, or PCIe and ML2)
+• Drive Bays:  8x 2.5" hot-swap SAS/SATA
+• HBA/RAID Support:   SW RAID standard; optional HBA or HW RAID with 
+flash cache
+• Network Interface:   2x 1GbE ports + 1x dedicated 1GbE management
+ port (standard); optional modular LOM supports 2x 1GbE Base-T or 2x 
+10GbE with Base-T or SFP+
+• Power:    2x hot-swap/redundant (Energy Star 2.1): 550W/750W 80 
+• OSes Supported:   Windows Server  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•  Enterprise performance and flexibility. Compact footprint.
+•  ThinkSystem ST550 is a 4U tower server that provides the performance 
+and reliability you expect from the data center, delivered in a package 
+optimized for office environments. 
+• Form Factor/Height:  4U rackable tower
+• Processor:     Up to 2 second-generation Intel® Xeon® Platinum processor
+, up to 125W
+• Memory:    Up to 768GB in 12x DIMM slots using 64GB DIMMs; 2666 and 
+TruDDR4
+• Expansion Slots:   Up to 6x PCIe 3.0 (with 2x processors)
+• Drive Bays:   Up to 16x 2.5" (including 4 NVMe) or 8x 3.5" bays; Plus up to
+ 4x 2.5" and 2x internal M.2 boot
+• HBA/RAID Support:  Software RAID (4x ports) standard; optional hardware
+ RAID (up to 24x ports); up to 16-port HBAs
+• Network Interface:  2x 1GbE ports standard
+• Power (Energy Star 2.1 compliant):   1x 450W 80 PLUS Gold (fixed); 
+or 2x 550W/750W/1100W 80 PLUS Platinum (hot-swap/redundant N+1);
+• Operating System Supported:  Windows Server </t>
+  </si>
+  <si>
+    <t>• Boasts responsive 10th Gen Intel® Core™ processing 
+• Listen to music and movies with vibrant 3-dimensional sound from
+ Dolby Atmos® 
+• Travels easily wherever you go, features an ultra slim chassis at just 14.9mm.
+• Enjoy your laptop on-the-go with up to 14 hours battery life.
+• Processor: 10th Generation Intel® Core™ i5-1035G1 Processor (4 Cores)
+• Operating System: Windows 10 Home 64
+• Display Type: 14.0" FHD (1920 x 1080) IPS, glossy, 300 nits
+• Memory:  8 GB LPDDR4X 3200MHz (Soldered)
+• Hard Drive:  512 GB PCIe SSD
+• Graphics:  NVIDIA® GeForce® MX350 2GB
+• Bluetooth:  Bluetooth® 5.0
+• Camera:  IR &amp; 720p HD
+• Fingerprint Reader:  Fingerprint Reader
+• Keyboard:  Backlit - US English
+• Wireless:  Wi-Fi 6 802.11AX (2 x 2)</t>
+  </si>
+  <si>
+    <t>Desktop System76 Thelio Mira</t>
+  </si>
+  <si>
+    <t>• Thelio Mira’s pro-grade components propel your career to Mars and beyond.
+• Pro Performance 
+• 4th Gen AMD Ryzen CPU 
+• Dual GPUs 
+• Up to 128GB RAM 
+• Up to 4TB PCIe 4.0 NVMe Storage
+• Thelio Mira is meticulously engineered to maximize performance and prevent 
+  throttling.
+• Operating System: Ubuntu 20.04 LTS
+• Processor:  4th Gen AMD® Ryzen™
+• Graphics: NVIDIA® Graphics available
+• Memory: Up to 128 GB Dual Channel ECC DDR4
+• Storage:  Up to 36 TB, 2 × M.2 PCIe Gen4 NVMe and 4 × 2.5″ SATA drives
+• Dimensions:  17.18″ × 9.96″ × 13.03″ (436.35 × 253 × 331mm)</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop ThinkCentre M75n Nano</t>
+  </si>
+  <si>
+    <t>• Packed with AMD Ryzen™ PRO processing
+• A nano desktop PC--the size of a 12 oz soda can
+• Easy to deploy, manage, and use
+• Portable &amp; durable
+• Comes with USB keyboard &amp; mouse
+• Gives you flexibility whether at the office or at home
+• Processor:  AMD Ryzen™ 3 PRO 3300U Processor (2.10 GHz, up to 3.50 GHz Max
+  Boost, 4 Cores, 4 Threads, 4 MB Cache)
+• Hard Drive:  128 GB PCIe SSD
+• Operating System:   Windows 10 Home
+• Graphics: Integrated Radeon™ Vega Graphics
+• Memory:   8GB DDR4 2400MHz
+• Storage:   Up to 2 TB PCIe SSD
+• Dimensions:   7.04" x 3.46" x 0.86"</t>
+  </si>
+  <si>
+    <t>• All-in-One Desktop Computer
+• Operating system: macOS Sierra
+• Processor: 3.8GHz 8‑core 10th-generation Intel Core i7, Turbo Boost up to 
+   5.0GHz
+• Memory: 8GB (two 4GB) of 2666MHz DDR4 memory; four SO-DIMM slots, 
+   user accessible
+• Storage: 512GB SSD - Configurable to 1TB, 2TB, 4TB, or 8TB SSD
+• Graphics: Radeon Pro 5500 XT with 8GB of GDDR6 memory
+• Screen: 27" 5120x2880 Retina 5K</t>
+  </si>
+  <si>
+    <t>• Landmark introduction that would influence generations of designs across
+the PC industry in 2001 (Refurbished)
+• Processor: 667Mhz G4 processor
+• RAM: 256MB PC133 SO-DIMM RAM
+• Graphics: ATI Mobility Radeon (4X AGP) graphics with 16 MB of DDR
+  SDRAM
+• Storage: 30GB Hard drive
+• Battery Life: Up to 5 hours
+• Screen: 15.2" Widescreen, enhanced to 1280×854 resolution
+• Feature Slot-loading combo drive (fixed from the original DVD-ROM drives),
+ DVI video output, AirPort ready (the high-end 800Mhz model came with the
+ card installed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 3.2GHz Intel Core i3 processor with 4MB level 3 cache.
+• 4GB (two 2GB SO-DIMMs) of 1333MHz DDR3 SDRAM
+• Height: 20.4 inches (51.7 cm)
+• Width: 25.6 inches (65.0 cm)
+• Depth: 8.15 inches (20.7 cm)
+• Weight: 30.5 pounds (13.8 kg)1
+• AirPort Extreme 802.11n Wi-Fi wireless networking
+• ATI Radeon HD 5670 graphics processor with 512MB of GDDR3 memory.
+• Built-in 27-inch (viewable) LED-backlit glossy widescreen TFT 
+  active-matrix liquid crystal display with IPS technology.
+• One FireWire 800 port; 7 watts
+• Four USB 2.0 ports
+• SDXC card slot
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +1385,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri "/>
     </font>
   </fonts>
   <fills count="2">
@@ -264,7 +1420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -272,6 +1428,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,22 +1716,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="2" max="2" width="14.81640625" customWidth="1"/>
     <col min="3" max="3" width="51.54296875" customWidth="1"/>
     <col min="5" max="5" width="16.453125" customWidth="1"/>
     <col min="6" max="6" width="9.1796875" customWidth="1"/>
     <col min="8" max="8" width="37.6328125" customWidth="1"/>
     <col min="10" max="10" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +1750,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -593,13 +1759,16 @@
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="130" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -610,28 +1779,31 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="G2" s="3">
         <v>250</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
-        <v>46</v>
-      </c>
       <c r="J2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="135" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="135" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -645,25 +1817,28 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3">
+        <v>36</v>
+      </c>
+      <c r="G3" s="3">
         <v>920</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="K3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="409.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -677,25 +1852,28 @@
         <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3">
         <v>670</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="333.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -708,14 +1886,29 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3">
+        <v>795</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="333.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -728,14 +1921,29 @@
       <c r="D6" t="s">
         <v>8</v>
       </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="319">
       <c r="A7">
         <v>5</v>
       </c>
@@ -748,14 +1956,29 @@
       <c r="D7" t="s">
         <v>8</v>
       </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1530</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="377">
       <c r="A8">
         <v>6</v>
       </c>
@@ -768,14 +1991,29 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2150</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="391.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -783,19 +2021,34 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1595</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="362.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -803,19 +2056,34 @@
         <v>7</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1420</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="377">
       <c r="A11">
         <v>9</v>
       </c>
@@ -823,19 +2091,34 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
       </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2450</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="319">
       <c r="A12">
         <v>10</v>
       </c>
@@ -843,19 +2126,34 @@
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
       </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3">
+        <v>970</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="406">
       <c r="A13">
         <v>11</v>
       </c>
@@ -863,19 +2161,34 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
       </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="3">
+        <v>880</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="409.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -883,19 +2196,34 @@
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="217.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -903,19 +2231,34 @@
         <v>7</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="3">
+        <v>110</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="348">
       <c r="A16">
         <v>14</v>
       </c>
@@ -923,19 +2266,34 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="3">
+        <v>400</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="275.5">
       <c r="A17">
         <v>15</v>
       </c>
@@ -943,19 +2301,34 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="319">
       <c r="A18">
         <v>16</v>
       </c>
@@ -963,19 +2336,34 @@
         <v>7</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="275.5">
       <c r="A19">
         <v>17</v>
       </c>
@@ -983,19 +2371,34 @@
         <v>7</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="3">
+        <v>500</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="246.5">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1003,19 +2406,34 @@
         <v>7</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="333.5">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1023,19 +2441,34 @@
         <v>7</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21">
+        <v>850</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="348">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1043,19 +2476,34 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22">
+        <v>1200</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="377">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1063,19 +2511,34 @@
         <v>7</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23">
+        <v>1100</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="409.5">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1083,19 +2546,34 @@
         <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="D24" t="s">
-        <v>34</v>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="I24" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="406">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1103,19 +2581,34 @@
         <v>7</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>1800</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="391.5">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1123,15 +2616,1185 @@
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="333.5">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27">
+        <v>870</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="406">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28">
+        <v>1500</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="348">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29">
+        <v>2500</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="362.5">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30">
+        <v>2800</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="409.5">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31">
+        <v>1600</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="377">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32">
+        <v>2100</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="409.5">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33">
+        <v>160000</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="319">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>72</v>
+      </c>
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34">
+        <v>200000</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I34" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="409.5">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>350000</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I35" t="s">
+        <v>73</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="409.5">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G36">
+        <v>120000</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s">
+        <v>73</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="409.5">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>81</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37">
+        <v>1700</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="409.5">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>1860</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="409.5">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39">
+        <v>1560</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="409.5">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40">
+        <v>2350</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="188.5">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41">
+        <v>2300</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I41" t="s">
+        <v>41</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="145">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42">
+        <v>1500</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I42" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="409.5">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" t="s">
+        <v>35</v>
+      </c>
+      <c r="G43">
+        <v>600</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="319">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44">
+        <v>560</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="406">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G45">
+        <v>1300</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="362.5">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46">
+        <v>1485</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="409.5">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47">
+        <v>1860</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="377">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48">
+        <v>1950</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="406">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>35</v>
+      </c>
+      <c r="G49">
+        <v>2100</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="409.5">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50">
+        <v>1424</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="348">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="J26">
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G51">
+        <v>789</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="409.5">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D52" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52">
+        <v>1150</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="377">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53">
+        <v>780</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="333.5">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54">
+        <v>745</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="290">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" t="s">
+        <v>30</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55">
+        <v>600</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="304.5">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G56">
+        <v>3500</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I56" t="s">
+        <v>41</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="261">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57">
+        <v>1200</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="275.5">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
+      </c>
+      <c r="G58">
+        <v>1500</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="261">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G59">
+        <v>475</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
         <v>0</v>
       </c>
     </row>

--- a/csv_files/items.xlsx
+++ b/csv_files/items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billd\Documents\Spring 2021\software_engineering\project\testing\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC72105A-0F39-4A2E-850B-2DF713DCE9E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8665E-2787-44EB-BD8B-5A294158A995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="149">
   <si>
     <t>Id</t>
   </si>
@@ -1366,6 +1365,9 @@
 • Four USB 2.0 ports
 • SDXC card slot
 </t>
+  </si>
+  <si>
+    <t>Computer Company</t>
   </si>
 </sst>
 </file>
@@ -1716,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1731,9 +1733,10 @@
     <col min="8" max="8" width="37.6328125" customWidth="1"/>
     <col min="10" max="10" width="17.1796875" customWidth="1"/>
     <col min="11" max="11" width="14.81640625" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1767,8 +1770,11 @@
       <c r="K1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="130" customHeight="1">
+      <c r="L1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="130" customHeight="1">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="135" customHeight="1">
+    <row r="3" spans="1:12" ht="135" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1838,7 +1844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="409.5">
+    <row r="4" spans="1:12" ht="409.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1873,7 +1879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="333.5">
+    <row r="5" spans="1:12" ht="333.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="333.5">
+    <row r="6" spans="1:12" ht="333.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="319">
+    <row r="7" spans="1:12" ht="319">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1978,7 +1984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="377">
+    <row r="8" spans="1:12" ht="377">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="391.5">
+    <row r="9" spans="1:12" ht="391.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="362.5">
+    <row r="10" spans="1:12" ht="362.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2083,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="377">
+    <row r="11" spans="1:12" ht="377">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="319">
+    <row r="12" spans="1:12" ht="319">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2153,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="406">
+    <row r="13" spans="1:12" ht="406">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="409.5">
+    <row r="14" spans="1:12" ht="409.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="217.5">
+    <row r="15" spans="1:12" ht="217.5">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2258,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="348">
+    <row r="16" spans="1:12" ht="348">
       <c r="A16">
         <v>14</v>
       </c>

--- a/csv_files/items.xlsx
+++ b/csv_files/items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\billd\Documents\Spring 2021\software_engineering\project\testing\csv_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD8665E-2787-44EB-BD8B-5A294158A995}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B8617-D8C4-42EF-9C2D-C3CD7783A37D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -1368,6 +1368,98 @@
   </si>
   <si>
     <t>Computer Company</t>
+  </si>
+  <si>
+    <t>Computer Part</t>
+  </si>
+  <si>
+    <t>ThinkPad Battery 77++</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>•  The 6-cell ThinkPad battery 77++ is a replacement/spare battery for 
+     ThinkPad P52. 
+•  This battery is powered by Lithium-Ion technology and has a safeguard 
+     chip which authenticates with Lenovo systems.
+•  The battery lasts on average 90 watt hours and utilizes over-discharge
+     protection to ensure a secure flow of power.
+•  6 cell battery
+•  Over-discharge protection to prolong battery life
+•  Battery energy (Watt-hours): 90Wh
+•  Battery safeguard chip authenticates with Lenovo systems  
+•  Battery Life:  90Wh
+•  Hardware Requirements:  Nominal voltage 11.4V</t>
+  </si>
+  <si>
+    <t>ThinkPad Battery 61++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• The 6-cell ThinkPad battery 61++ is a replacement/spare battery 
+    for ThinkPad new T-series system. 
+•  The battery is rechargeable and can be used as replacement or 
+    as a convenient spare for ThinkPad T470 &amp; T570 systems. 
+•  This battery is powered by Lithium-Ion technology and has a 
+safeguard chip which authenticates with Lenovo systems.
+• Lithium-ion technology
+• 6 cell cylindrical flat battery
+• Over-discharge protection to prolong the life of the battery
+• Battery energy (Watt-hours): 72Wh
+• Battery Safeguard chip authenticates with Lenovo systems"
+•  Battery Life:  5.5Hours 	</t>
+  </si>
+  <si>
+    <t>ThinkPad 500G Hard Drive</t>
+  </si>
+  <si>
+    <t>• The ThinkPad 500GB 7200rpm 7mm 2.5” hard drive with the high
+   speed SATA 6Gbps interface, 7mm height, it is the best solution
+   to upgrade your ThinkPad systems.
+• Provides a robust thin design enabling a seamless upgrade from 
+   the primary hard drive of supported ThinkPad laptops.
+• Provides good storage size along with advanced format and SATA
+   data transfer capabilities.
+• Hard Drive Capacity:  500GB
+• Hard Drive Size:  2.5in</t>
+  </si>
+  <si>
+    <t>ThinkStation 1TB Hard Drive</t>
+  </si>
+  <si>
+    <t>• ThinkStation 1TB 7200rpm SATA 3.5" Enterprise Hard Drive have
+   high reliability and large capacity to support 7x24 working environment,
+   it is fully compatible with specified ThinkStation machines, it is the best 
+   solution for you to upgrade your ThinkStation Storage.
+• OS Requirements: All supported. 
+• Hardware Requirements: SATA PN
+• Connection Type: SATA
+•  Weight: 716g/1.58lb</t>
+  </si>
+  <si>
+    <t>Lenovo 6GB DDR4 RAM Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Lenovo 8GB DDR4 2400MHz ECC RDIMM Memory (4X70M09261) 
+• Capacity: 8GB
+• Memory Type: DDR4
+• Weight: 0.02kg 
+• Height: 3.98 mm 
+• Width: 30.75 mm 
+• Depth: 133.35 mm  </t>
+  </si>
+  <si>
+    <t>Lenovo 16 GB DDR4 RAM Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Lenovo 16GB DDR4 2933MHz ECC SoDIMM Memory upgrades
+   the standard memory capacity in select PCs, improving 
+   performance and enhancing the PC's ability to run more 
+   programs simultaneously.
+• 16GB DDR4 2933MHz ECC SoDIMM.
+•  Compatible with select ThinkPad Mobile Workstations.
+• Hardware Requirements: SoDIMM Slot.
+• Weight: 15g </t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3804,6 +3896,216 @@
         <v>0</v>
       </c>
     </row>
+    <row r="60" spans="1:11" ht="290">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>151</v>
+      </c>
+      <c r="E60" t="s">
+        <v>151</v>
+      </c>
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60">
+        <v>140</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I60" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="275.5">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61">
+        <v>140</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I61" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="203">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>155</v>
+      </c>
+      <c r="D62" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" t="s">
+        <v>151</v>
+      </c>
+      <c r="G62">
+        <v>90</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="174">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>157</v>
+      </c>
+      <c r="D63" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" t="s">
+        <v>151</v>
+      </c>
+      <c r="F63" t="s">
+        <v>151</v>
+      </c>
+      <c r="G63">
+        <v>270</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="I63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="116">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="D64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" t="s">
+        <v>151</v>
+      </c>
+      <c r="F64" t="s">
+        <v>151</v>
+      </c>
+      <c r="G64">
+        <v>190</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I64" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="174">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" t="s">
+        <v>151</v>
+      </c>
+      <c r="F65" t="s">
+        <v>151</v>
+      </c>
+      <c r="G65">
+        <v>190</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/csv_files/items.xlsx
+++ b/csv_files/items.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Screen Resolution</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Computer Company</t>
         </is>
@@ -578,7 +583,12 @@
           <t>Integrated PowerVR GX6250</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -646,10 +656,15 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>NVIDIA® GTX 1650 Ti 4GB</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+          <t>NVIDIA® GTX</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -721,10 +736,15 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>NVIDIA® GeForce® GTX 1650 4GB</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>NVIDIA® GeForce® GTX</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -794,10 +814,15 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>NVIDIA® GeForce® MX350 2GB</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
+          <t>NVIDIA® GeForce®</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -867,10 +892,15 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>NVIDIA® GeForce® GTX 1650 4GB</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
+          <t>NVIDIA® GeForce® GTX</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -939,10 +969,15 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>NVIDIA® GTX 1660 Ti 6GB</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+          <t>NVIDIA® GTX</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1013,10 +1048,15 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>NVIDIA® GeForce® RTX™ 2070</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+          <t>NVIDIA® GeForce®</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1088,10 +1128,15 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>NVIDIA® Quadro® T1000</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1162,10 +1207,15 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>NVIDIA® Quadro® T1000 4GB</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1237,10 +1287,15 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD Graphics</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1309,10 +1364,15 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD Graphics</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1384,10 +1444,15 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Integrated Intel® Iris® Xe Graphics</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
+          <t>Intel® Iris® Xe Graphics</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1461,10 +1526,15 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>NVIDIA® GeForce® GTX 1650 4GB</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
+          <t>NVIDIA® GeForce® GTX</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1531,10 +1601,15 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Intel HD Graphics 3000</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1604,10 +1679,15 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Intel HD Graphics 3000</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1676,10 +1756,15 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Apple M1 chip</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1751,10 +1836,15 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Apple M1 chip</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1821,10 +1911,15 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Intel HD Graphics 615</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1893,7 +1988,12 @@
           <t>ATI Mobility Radeon</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1966,7 +2066,12 @@
           <t>AMD Radeon™ Graphics</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2040,7 +2145,12 @@
           <t>Intel® Iris® Xe Graphics</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2112,10 +2222,15 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Intel® Iris Xe Graphics</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
+          <t>Intel® Iris® Xe Graphics</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2188,10 +2303,15 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>NVIDIA GTX 1650</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
+          <t>NVIDIA® GTX</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2262,10 +2382,15 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 3060</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
+          <t>NVIDIA® GeForce® RTX™</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2337,10 +2462,15 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>NVIDIA GeForce RTX 2070</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>NVIDIA® GeForce® RTX™</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2410,10 +2540,15 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>NVIDIA Quadro P620 2GB</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2485,10 +2620,15 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>NVIDIA® Quadro P4000 8GB</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2557,10 +2697,15 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>NVIDIA® Quadro GV100 32GB</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2630,10 +2775,15 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>NVIDIA® Quadro RTX™ 8000 48GB</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2704,10 +2854,15 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>NVIDIA® Quadro RTX™ 8000 48GB</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2779,10 +2934,15 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>NVIDIA® Quadro® graphics cards</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
+          <t>NVIDIA® Quadro®</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2859,7 +3019,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2932,7 +3097,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3010,7 +3180,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3088,7 +3263,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3165,7 +3345,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3242,7 +3427,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3320,7 +3510,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3397,7 +3592,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3460,10 +3660,15 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Radeon Pro 5500 XT</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
+          <t>Radeon Pro</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3523,10 +3728,15 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Radeon Pro 560X with 4GB</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
+          <t>Radeon Pro</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3599,10 +3809,15 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Integrated AMD Radeon™ Graphics</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>AMD Radeon™ Graphics</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3673,10 +3888,15 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD Graphics</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3749,10 +3969,15 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD Graphics 630</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -3823,10 +4048,15 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD graphics</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -3899,10 +4129,15 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>NVIDIA® GeForce® RTX™ 2080 Super 8GB</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
+          <t>NVIDIA® GeForce® RTX™</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -3973,10 +4208,15 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>AMD Radeon™ RX 5500 4GB</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
+          <t>AMD Radeon™ Graphics</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4048,10 +4288,15 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>AMD Radeon™ RX 560 4GB</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
+          <t>AMD Radeon™ Graphics</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4124,10 +4369,15 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD Graphics 630</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4197,10 +4447,15 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD graphics</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4273,10 +4528,15 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD Graphics 630</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4348,10 +4608,15 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Integrated AMD Radeon™ R4 Graphics</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
+          <t>AMD Radeon™ Graphics</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4419,10 +4684,15 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Integrated Intel® UHD graphics</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
+          <t>Intel® UHD Graphics</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4493,7 +4763,12 @@
           <t>ATI Radeon HD 5670</t>
         </is>
       </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4564,10 +4839,15 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Radeon Pro Vega 56</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
+          <t>Radeon Pro</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4637,7 +4917,12 @@
           <t>NVIDIA® Graphics</t>
         </is>
       </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4708,7 +4993,12 @@
           <t>NVIDIA® Graphics</t>
         </is>
       </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -4776,10 +5066,15 @@
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Integrated Radeon™ Vega Graphics</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
+          <t>Radeon Pro</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -4850,7 +5145,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -4921,7 +5221,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -4989,7 +5294,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5056,7 +5366,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5122,7 +5437,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5189,7 +5509,12 @@
           <t>none</t>
         </is>
       </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>FHD</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/csv_files/items.xlsx
+++ b/csv_files/items.xlsx
@@ -588,7 +588,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -664,7 +668,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -744,7 +752,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -822,7 +834,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -900,7 +916,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -977,7 +997,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1056,7 +1080,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1136,7 +1164,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1215,7 +1247,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1295,7 +1331,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1372,7 +1412,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1452,7 +1496,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1534,7 +1582,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1609,7 +1661,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1687,7 +1743,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1764,7 +1824,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1844,7 +1908,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1919,7 +1987,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1993,7 +2065,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2071,7 +2147,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2150,7 +2230,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2230,7 +2314,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2311,7 +2399,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2390,7 +2482,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2470,7 +2566,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2548,7 +2648,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2628,7 +2732,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2705,7 +2813,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2783,7 +2895,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2862,7 +2978,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2942,7 +3062,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3013,7 +3137,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3081,7 +3209,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3162,7 +3294,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3241,7 +3377,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3322,7 +3462,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3401,7 +3545,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3482,7 +3630,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3561,7 +3713,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3641,7 +3797,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3722,7 +3882,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3800,7 +3964,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3881,7 +4049,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3961,7 +4133,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr"/>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4037,7 +4213,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr"/>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4113,7 +4293,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4192,7 +4376,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr"/>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Apple Inc.</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4267,7 +4455,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4343,7 +4535,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr"/>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>System76</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4419,7 +4615,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr"/>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4501,7 +4701,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr"/>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4579,7 +4783,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O53" t="inlineStr"/>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4662,7 +4870,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4745,7 +4957,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4827,7 +5043,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4909,7 +5129,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4992,7 +5216,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5074,7 +5302,11 @@
           <t>FHD</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5150,7 +5382,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O60" t="inlineStr"/>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5226,7 +5462,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5299,7 +5539,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5371,7 +5615,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O63" t="inlineStr"/>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5442,7 +5690,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr"/>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5514,7 +5766,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O65" t="inlineStr"/>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5584,7 +5840,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O66" t="inlineStr"/>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5654,7 +5914,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O67" t="inlineStr"/>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5729,7 +5993,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O68" t="inlineStr"/>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5805,7 +6073,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr"/>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -5880,7 +6152,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr"/>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -5953,7 +6229,11 @@
           <t>none</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr"/>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Sony</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
